--- a/lhs/2.BUS/DATA/대중교통_이용건수_시각화_26.01.08.xlsx
+++ b/lhs/2.BUS/DATA/대중교통_이용건수_시각화_26.01.08.xlsx
@@ -5,12 +5,12 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MBCAcademy_PJ1\lhs\2.BUS\DATA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\lhs\2.BUS\DATA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBB9C0A4-E9CA-4E5F-9C0B-58F23100FEE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{165A75DE-AD04-4667-8171-C8863F8C0CF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5D2D0AAB-4FDD-488C-BD49-06E67175CCCE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="3" xr2:uid="{5D2D0AAB-4FDD-488C-BD49-06E67175CCCE}"/>
   </bookViews>
   <sheets>
     <sheet name="대중교통_이용건수" sheetId="1" r:id="rId1"/>
@@ -22,8 +22,8 @@
   <calcPr calcId="191029"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId6"/>
-    <pivotCache cacheId="5" r:id="rId7"/>
-    <pivotCache cacheId="15" r:id="rId8"/>
+    <pivotCache cacheId="1" r:id="rId7"/>
+    <pivotCache cacheId="2" r:id="rId8"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -190,7 +190,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="181" formatCode="#,##0.0000000"/>
+    <numFmt numFmtId="176" formatCode="#,##0.0000000"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -808,7 +808,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -827,13 +827,10 @@
     <xf numFmtId="0" fontId="16" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1733,6 +1730,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-A005-4EEA-8867-CC85630205C8}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -1748,6 +1750,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-A005-4EEA-8867-CC85630205C8}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -1763,6 +1770,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-A005-4EEA-8867-CC85630205C8}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -1799,7 +1811,7 @@
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
+            <c:showPercent val="1"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:leaderLines>
@@ -2033,6 +2045,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-5CBA-4387-B9C9-136B255813D5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -2048,6 +2065,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-5CBA-4387-B9C9-136B255813D5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -2063,6 +2085,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-5CBA-4387-B9C9-136B255813D5}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -2099,7 +2126,7 @@
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
+            <c:showPercent val="1"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:leaderLines>
@@ -2333,6 +2360,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-4979-4792-8BFF-88845D3F5390}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -2348,6 +2380,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-4979-4792-8BFF-88845D3F5390}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -2363,6 +2400,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-4979-4792-8BFF-88845D3F5390}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -2399,7 +2441,7 @@
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
+            <c:showPercent val="1"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:leaderLines>
@@ -2633,6 +2675,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-6485-4336-A222-647031E5752F}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -2648,6 +2695,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-6485-4336-A222-647031E5752F}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -2663,6 +2715,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-6485-4336-A222-647031E5752F}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -2699,7 +2756,7 @@
             <c:showVal val="1"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
+            <c:showPercent val="1"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="1"/>
             <c:leaderLines>
@@ -2874,6 +2931,69 @@
     <c:fmtId val="24"/>
   </c:pivotSource>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US"/>
+              <a:t>버스 이용건수</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.42530953620790463"/>
+          <c:y val="1.1544833398433367E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:pivotFmts>
       <c:pivotFmt>
@@ -3555,8 +3675,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.14265470388268933"/>
-          <c:y val="9.0574251063314237E-2"/>
+          <c:x val="0.14265476294308022"/>
+          <c:y val="0.12722911491534752"/>
           <c:w val="0.73335836191735226"/>
           <c:h val="0.65109345512348915"/>
         </c:manualLayout>
@@ -4590,6 +4710,55 @@
     <c:fmtId val="25"/>
   </c:pivotSource>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" altLang="ko-KR" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US"/>
+              <a:t>지하철 이용건수</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US" altLang="ko-KR" sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:pivotFmts>
       <c:pivotFmt>
@@ -4616,7 +4785,9 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
             <a:lstStyle/>
             <a:p>
               <a:pPr>
@@ -4667,7 +4838,9 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
             <a:lstStyle/>
             <a:p>
               <a:pPr>
@@ -4718,7 +4891,9 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
             <a:lstStyle/>
             <a:p>
               <a:pPr>
@@ -4769,7 +4944,9 @@
             <a:effectLst/>
           </c:spPr>
           <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
             <a:lstStyle/>
             <a:p>
               <a:pPr>
@@ -5826,6 +6003,61 @@
     <c:fmtId val="30"/>
   </c:pivotSource>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ko-KR" altLang="en-US"/>
+              <a:t>택시 이용건수</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ko-KR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:pivotFmts>
       <c:pivotFmt>
@@ -11675,15 +11907,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>457201</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>44825</xdr:rowOff>
+      <xdr:colOff>489858</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>119744</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>1143000</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>206189</xdr:rowOff>
+      <xdr:colOff>1175657</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>140876</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -15569,7 +15801,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{90852DE6-5B28-4E43-BCAF-FCFB4F1CD772}" name="피벗 테이블1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{90852DE6-5B28-4E43-BCAF-FCFB4F1CD772}" name="피벗 테이블1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4">
   <location ref="K3:O8" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField axis="axisRow" showAll="0">
@@ -15892,7 +16124,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{07E3D8E0-A5EF-4ADE-8BDB-FEEB9E2DFB17}" name="피벗 테이블1" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="23">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{07E3D8E0-A5EF-4ADE-8BDB-FEEB9E2DFB17}" name="피벗 테이블1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="23">
   <location ref="K3:N29" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField showAll="0">
@@ -16057,7 +16289,280 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9FE4BBDE-9577-4838-8DE2-E7EFD0614BBF}" name="피벗 테이블4" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="31">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AC4280D4-6623-4D8F-9133-4CACDF09D931}" name="피벗 테이블2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="28">
+  <location ref="K2:P29" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="9">
+    <pivotField axis="axisCol" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="26">
+        <item x="22"/>
+        <item x="24"/>
+        <item x="8"/>
+        <item x="15"/>
+        <item x="20"/>
+        <item x="4"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="10"/>
+        <item x="9"/>
+        <item x="5"/>
+        <item x="19"/>
+        <item x="13"/>
+        <item x="12"/>
+        <item x="21"/>
+        <item x="3"/>
+        <item x="7"/>
+        <item x="23"/>
+        <item x="14"/>
+        <item x="18"/>
+        <item x="2"/>
+        <item x="11"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="3" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="26">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="0"/>
+  </colFields>
+  <colItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="합계 : 버스" fld="3" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="10">
+    <chartFormat chart="12" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="10" format="16" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="14" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="19" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="21" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="22" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="24" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="24" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="24" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="24" format="3" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9FE4BBDE-9577-4838-8DE2-E7EFD0614BBF}" name="피벗 테이블4" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="37">
   <location ref="K67:P94" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField axis="axisCol" showAll="0">
@@ -16425,8 +16930,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9A57D02A-CEAA-48B6-A673-178D975E9D60}" name="피벗 테이블3" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="26">
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9A57D02A-CEAA-48B6-A673-178D975E9D60}" name="피벗 테이블3" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="32">
   <location ref="K35:P62" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField axis="axisCol" showAll="0">
@@ -16794,281 +17299,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{AC4280D4-6623-4D8F-9133-4CACDF09D931}" name="피벗 테이블2" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="25">
-  <location ref="K2:P29" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="9">
-    <pivotField axis="axisCol" showAll="0">
-      <items count="5">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="26">
-        <item x="22"/>
-        <item x="24"/>
-        <item x="8"/>
-        <item x="15"/>
-        <item x="20"/>
-        <item x="4"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="10"/>
-        <item x="9"/>
-        <item x="5"/>
-        <item x="19"/>
-        <item x="13"/>
-        <item x="12"/>
-        <item x="21"/>
-        <item x="3"/>
-        <item x="7"/>
-        <item x="23"/>
-        <item x="14"/>
-        <item x="18"/>
-        <item x="2"/>
-        <item x="11"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="6"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="3" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="1"/>
-  </rowFields>
-  <rowItems count="26">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i>
-      <x v="19"/>
-    </i>
-    <i>
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="21"/>
-    </i>
-    <i>
-      <x v="22"/>
-    </i>
-    <i>
-      <x v="23"/>
-    </i>
-    <i>
-      <x v="24"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="0"/>
-  </colFields>
-  <colItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="합계 : 버스" fld="3" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="10">
-    <chartFormat chart="12" format="4" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="10" format="16" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="14" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="19" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="21" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="22" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="24" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="24" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="24" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="24" format="3" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CA6A0F4D-E002-47A4-B5D4-ADBBBD218AEF}" name="피벗 테이블10" cacheId="15" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{CA6A0F4D-E002-47A4-B5D4-ADBBBD218AEF}" name="피벗 테이블10" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="값" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="K2:M7" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="9">
     <pivotField axis="axisRow" showAll="0">
@@ -17539,7 +17771,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F522F89-5E41-42E3-861E-203A29417C42}">
   <dimension ref="A1:I101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
@@ -20492,7 +20724,7 @@
   <dimension ref="A1:O101"/>
   <sheetViews>
     <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -20768,16 +21000,16 @@
       <c r="K4" s="4">
         <v>2021</v>
       </c>
-      <c r="L4" s="6">
+      <c r="L4">
         <v>3158710</v>
       </c>
-      <c r="M4" s="6">
+      <c r="M4">
         <v>1344157818</v>
       </c>
-      <c r="N4" s="6">
+      <c r="N4">
         <v>1430691108</v>
       </c>
-      <c r="O4" s="6">
+      <c r="O4">
         <v>245574300</v>
       </c>
     </row>
@@ -20812,16 +21044,16 @@
       <c r="K5" s="4">
         <v>2022</v>
       </c>
-      <c r="L5" s="6">
+      <c r="L5">
         <v>3180299</v>
       </c>
-      <c r="M5" s="6">
+      <c r="M5">
         <v>1476650050</v>
       </c>
-      <c r="N5" s="6">
+      <c r="N5">
         <v>1620682806</v>
       </c>
-      <c r="O5" s="6">
+      <c r="O5">
         <v>239960766</v>
       </c>
     </row>
@@ -20856,16 +21088,16 @@
       <c r="K6" s="4">
         <v>2023</v>
       </c>
-      <c r="L6" s="6">
+      <c r="L6">
         <v>3191538</v>
       </c>
-      <c r="M6" s="6">
+      <c r="M6">
         <v>1524180658</v>
       </c>
-      <c r="N6" s="6">
+      <c r="N6">
         <v>1773502241</v>
       </c>
-      <c r="O6" s="6">
+      <c r="O6">
         <v>193223841</v>
       </c>
     </row>
@@ -20900,16 +21132,16 @@
       <c r="K7" s="4">
         <v>2024</v>
       </c>
-      <c r="L7" s="6">
+      <c r="L7">
         <v>3187776</v>
       </c>
-      <c r="M7" s="6">
+      <c r="M7">
         <v>1582835588</v>
       </c>
-      <c r="N7" s="6">
+      <c r="N7">
         <v>1831217498</v>
       </c>
-      <c r="O7" s="6">
+      <c r="O7">
         <v>237064584</v>
       </c>
     </row>
@@ -20944,16 +21176,16 @@
       <c r="K8" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="L8" s="6">
+      <c r="L8">
         <v>12718323</v>
       </c>
-      <c r="M8" s="6">
+      <c r="M8">
         <v>5927824114</v>
       </c>
-      <c r="N8" s="6">
+      <c r="N8">
         <v>6656093653</v>
       </c>
-      <c r="O8" s="6">
+      <c r="O8">
         <v>915823491</v>
       </c>
     </row>
@@ -23663,10 +23895,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1E10F15-0CE7-4C4C-B11F-7E70D4F446B4}">
-  <dimension ref="A1:AD101"/>
+  <dimension ref="A1:S101"/>
   <sheetViews>
-    <sheetView topLeftCell="C13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="U22" sqref="U22"/>
+    <sheetView topLeftCell="C49" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T67" sqref="T67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -23690,7 +23922,7 @@
     <col min="28" max="28" width="16.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -23719,7 +23951,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
         <v>2021</v>
       </c>
@@ -23748,7 +23980,7 @@
         <v>-11</v>
       </c>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <v>2021</v>
       </c>
@@ -23798,7 +24030,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <v>2021</v>
       </c>
@@ -23829,30 +24061,29 @@
       <c r="K4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="L4" s="6">
+      <c r="L4">
         <v>413121562</v>
       </c>
-      <c r="M4" s="6">
+      <c r="M4">
         <v>656355602</v>
       </c>
-      <c r="N4" s="6">
+      <c r="N4">
         <v>116635047</v>
       </c>
-      <c r="O4" s="6"/>
       <c r="P4" t="s">
         <v>40</v>
       </c>
-      <c r="Q4" s="6">
+      <c r="Q4">
         <v>413121562</v>
       </c>
-      <c r="R4" s="6">
+      <c r="R4">
         <v>656355602</v>
       </c>
-      <c r="S4" s="6">
+      <c r="S4">
         <v>116635047</v>
       </c>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
         <v>2021</v>
       </c>
@@ -23883,21 +24114,17 @@
       <c r="K5" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="L5" s="6">
+      <c r="L5">
         <v>140803615</v>
       </c>
-      <c r="M5" s="6">
+      <c r="M5">
         <v>202881003</v>
       </c>
-      <c r="N5" s="6">
+      <c r="N5">
         <v>33927014</v>
       </c>
-      <c r="O5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-    </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.4">
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
         <v>2021</v>
       </c>
@@ -23928,21 +24155,17 @@
       <c r="K6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L6" s="6">
+      <c r="L6">
         <v>231399328</v>
       </c>
-      <c r="M6" s="6">
+      <c r="M6">
         <v>123414134</v>
       </c>
-      <c r="N6" s="6">
+      <c r="N6">
         <v>20746404</v>
       </c>
-      <c r="O6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-    </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.4">
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <v>2021</v>
       </c>
@@ -23973,21 +24196,17 @@
       <c r="K7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="L7" s="6">
+      <c r="L7">
         <v>224090645</v>
       </c>
-      <c r="M7" s="6">
+      <c r="M7">
         <v>286155643</v>
       </c>
-      <c r="N7" s="6">
+      <c r="N7">
         <v>41989846</v>
       </c>
-      <c r="O7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.4">
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <v>2021</v>
       </c>
@@ -24018,21 +24237,17 @@
       <c r="K8" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="L8" s="6">
+      <c r="L8">
         <v>352970556</v>
       </c>
-      <c r="M8" s="6">
+      <c r="M8">
         <v>343213567</v>
       </c>
-      <c r="N8" s="6">
+      <c r="N8">
         <v>31492576</v>
       </c>
-      <c r="O8" s="6"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="6"/>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.4">
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <v>2021</v>
       </c>
@@ -24063,18 +24278,17 @@
       <c r="K9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L9" s="6">
+      <c r="L9">
         <v>134756110</v>
       </c>
-      <c r="M9" s="6">
+      <c r="M9">
         <v>261330257</v>
       </c>
-      <c r="N9" s="6">
+      <c r="N9">
         <v>34105941</v>
       </c>
-      <c r="O9" s="6"/>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.4">
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <v>2021</v>
       </c>
@@ -24105,18 +24319,17 @@
       <c r="K10" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="L10" s="6">
+      <c r="L10">
         <v>248372319</v>
       </c>
-      <c r="M10" s="6">
+      <c r="M10">
         <v>242330807</v>
       </c>
-      <c r="N10" s="6">
+      <c r="N10">
         <v>26062549</v>
       </c>
-      <c r="O10" s="6"/>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.4">
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <v>2021</v>
       </c>
@@ -24147,18 +24360,17 @@
       <c r="K11" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L11" s="6">
+      <c r="L11">
         <v>179205270</v>
       </c>
-      <c r="M11" s="6">
+      <c r="M11">
         <v>83174740</v>
       </c>
-      <c r="N11" s="6">
+      <c r="N11">
         <v>17053803</v>
       </c>
-      <c r="O11" s="6"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.4">
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <v>2021</v>
       </c>
@@ -24189,18 +24401,17 @@
       <c r="K12" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="L12" s="6">
+      <c r="L12">
         <v>202012786</v>
       </c>
-      <c r="M12" s="6">
+      <c r="M12">
         <v>237281653</v>
       </c>
-      <c r="N12" s="6">
+      <c r="N12">
         <v>33933306</v>
       </c>
-      <c r="O12" s="6"/>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.4">
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <v>2021</v>
       </c>
@@ -24231,21 +24442,17 @@
       <c r="K13" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="L13" s="6">
+      <c r="L13">
         <v>156404952</v>
       </c>
-      <c r="M13" s="6">
+      <c r="M13">
         <v>109768690</v>
       </c>
-      <c r="N13" s="6">
+      <c r="N13">
         <v>18750230</v>
       </c>
-      <c r="O13" s="6"/>
-      <c r="AB13" s="6"/>
-      <c r="AC13" s="6"/>
-      <c r="AD13" s="6"/>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.4">
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
         <v>2021</v>
       </c>
@@ -24276,21 +24483,17 @@
       <c r="K14" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L14" s="6">
+      <c r="L14">
         <v>259199696</v>
       </c>
-      <c r="M14" s="6">
+      <c r="M14">
         <v>143077040</v>
       </c>
-      <c r="N14" s="6">
+      <c r="N14">
         <v>31175446</v>
       </c>
-      <c r="O14" s="6"/>
-      <c r="AB14" s="6"/>
-      <c r="AC14" s="6"/>
-      <c r="AD14" s="6"/>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.4">
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
         <v>2021</v>
       </c>
@@ -24321,21 +24524,17 @@
       <c r="K15" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="L15" s="6">
+      <c r="L15">
         <v>248622895</v>
       </c>
-      <c r="M15" s="6">
+      <c r="M15">
         <v>210214479</v>
       </c>
-      <c r="N15" s="6">
+      <c r="N15">
         <v>19506266</v>
       </c>
-      <c r="O15" s="6"/>
-      <c r="AB15" s="6"/>
-      <c r="AC15" s="6"/>
-      <c r="AD15" s="6"/>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.4">
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
         <v>2021</v>
       </c>
@@ -24366,16 +24565,15 @@
       <c r="K16" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="L16" s="6">
+      <c r="L16">
         <v>261784476</v>
       </c>
-      <c r="M16" s="6">
+      <c r="M16">
         <v>381725232</v>
       </c>
-      <c r="N16" s="6">
+      <c r="N16">
         <v>50733831</v>
       </c>
-      <c r="O16" s="6"/>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A17" s="2">
@@ -24408,16 +24606,15 @@
       <c r="K17" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="L17" s="6">
+      <c r="L17">
         <v>276200470</v>
       </c>
-      <c r="M17" s="6">
+      <c r="M17">
         <v>135545577</v>
       </c>
-      <c r="N17" s="6">
+      <c r="N17">
         <v>23803634</v>
       </c>
-      <c r="O17" s="6"/>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A18" s="2">
@@ -24450,16 +24647,15 @@
       <c r="K18" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="L18" s="6">
+      <c r="L18">
         <v>311453924</v>
       </c>
-      <c r="M18" s="6">
+      <c r="M18">
         <v>479071759</v>
       </c>
-      <c r="N18" s="6">
+      <c r="N18">
         <v>53256731</v>
       </c>
-      <c r="O18" s="6"/>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A19" s="2">
@@ -24492,16 +24688,15 @@
       <c r="K19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L19" s="6">
+      <c r="L19">
         <v>138027351</v>
       </c>
-      <c r="M19" s="6">
+      <c r="M19">
         <v>264780514</v>
       </c>
-      <c r="N19" s="6">
+      <c r="N19">
         <v>29884809</v>
       </c>
-      <c r="O19" s="6"/>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A20" s="2">
@@ -24534,16 +24729,15 @@
       <c r="K20" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L20" s="6">
+      <c r="L20">
         <v>305182073</v>
       </c>
-      <c r="M20" s="6">
+      <c r="M20">
         <v>175673100</v>
       </c>
-      <c r="N20" s="6">
+      <c r="N20">
         <v>24465212</v>
       </c>
-      <c r="O20" s="6"/>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A21" s="2">
@@ -24576,16 +24770,15 @@
       <c r="K21" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="L21" s="6">
+      <c r="L21">
         <v>269741415</v>
       </c>
-      <c r="M21" s="6">
+      <c r="M21">
         <v>430156329</v>
       </c>
-      <c r="N21" s="6">
+      <c r="N21">
         <v>60214032</v>
       </c>
-      <c r="O21" s="6"/>
       <c r="Q21" s="5" t="s">
         <v>37</v>
       </c>
@@ -24627,26 +24820,25 @@
       <c r="K22" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L22" s="6">
+      <c r="L22">
         <v>200759599</v>
       </c>
-      <c r="M22" s="6">
+      <c r="M22">
         <v>134562660</v>
       </c>
-      <c r="N22" s="6">
+      <c r="N22">
         <v>23345292</v>
       </c>
-      <c r="O22" s="6"/>
       <c r="P22" t="s">
         <v>41</v>
       </c>
-      <c r="Q22" s="6">
+      <c r="Q22">
         <v>270166411</v>
       </c>
-      <c r="R22" s="6">
+      <c r="R22">
         <v>369163287</v>
       </c>
-      <c r="S22" s="6">
+      <c r="S22">
         <v>32486824</v>
       </c>
     </row>
@@ -24681,16 +24873,15 @@
       <c r="K23" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="L23" s="6">
+      <c r="L23">
         <v>278021630</v>
       </c>
-      <c r="M23" s="6">
+      <c r="M23">
         <v>377368540</v>
       </c>
-      <c r="N23" s="6">
+      <c r="N23">
         <v>53263099</v>
       </c>
-      <c r="O23" s="6"/>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A24" s="2">
@@ -24723,16 +24914,15 @@
       <c r="K24" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L24" s="6">
+      <c r="L24">
         <v>205248912</v>
       </c>
-      <c r="M24" s="6">
+      <c r="M24">
         <v>161791199</v>
       </c>
-      <c r="N24" s="6">
+      <c r="N24">
         <v>43784448</v>
       </c>
-      <c r="O24" s="6"/>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A25" s="2">
@@ -24765,16 +24955,15 @@
       <c r="K25" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="L25" s="6">
+      <c r="L25">
         <v>248392278</v>
       </c>
-      <c r="M25" s="6">
+      <c r="M25">
         <v>198821000</v>
       </c>
-      <c r="N25" s="6">
+      <c r="N25">
         <v>26404351</v>
       </c>
-      <c r="O25" s="6"/>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A26" s="2">
@@ -24807,16 +24996,15 @@
       <c r="K26" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L26" s="6">
+      <c r="L26">
         <v>270166411</v>
       </c>
-      <c r="M26" s="6">
+      <c r="M26">
         <v>369163287</v>
       </c>
-      <c r="N26" s="6">
+      <c r="N26">
         <v>32486824</v>
       </c>
-      <c r="O26" s="6"/>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A27" s="2">
@@ -24849,16 +25037,15 @@
       <c r="K27" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="L27" s="6">
+      <c r="L27">
         <v>186071080</v>
       </c>
-      <c r="M27" s="6">
+      <c r="M27">
         <v>518614717</v>
       </c>
-      <c r="N27" s="6">
+      <c r="N27">
         <v>40271859</v>
       </c>
-      <c r="O27" s="6"/>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A28" s="2">
@@ -24891,16 +25078,15 @@
       <c r="K28" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="L28" s="6">
+      <c r="L28">
         <v>185814761</v>
       </c>
-      <c r="M28" s="6">
+      <c r="M28">
         <v>129622124</v>
       </c>
-      <c r="N28" s="6">
+      <c r="N28">
         <v>28530941</v>
       </c>
-      <c r="O28" s="6"/>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A29" s="2">
@@ -24933,16 +25119,15 @@
       <c r="K29" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="L29" s="6">
+      <c r="L29">
         <v>5927824114</v>
       </c>
-      <c r="M29" s="6">
+      <c r="M29">
         <v>6656093653</v>
       </c>
-      <c r="N29" s="6">
+      <c r="N29">
         <v>915823491</v>
       </c>
-      <c r="O29" s="6"/>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A30" s="2">
@@ -25245,13 +25430,13 @@
       <c r="P39" t="s">
         <v>42</v>
       </c>
-      <c r="Q39" s="6">
+      <c r="Q39">
         <v>548188041</v>
       </c>
-      <c r="R39" s="6">
+      <c r="R39">
         <v>746531827</v>
       </c>
-      <c r="S39" s="6">
+      <c r="S39">
         <v>85749923</v>
       </c>
     </row>
@@ -25788,13 +25973,13 @@
       <c r="P57" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="Q57" s="6">
+      <c r="Q57">
         <v>248392278</v>
       </c>
-      <c r="R57" s="6">
+      <c r="R57">
         <v>198821000</v>
       </c>
-      <c r="S57" s="6">
+      <c r="S57">
         <v>26404351</v>
       </c>
     </row>
@@ -27085,8 +27270,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{157319FA-BB7E-4AE2-9E82-F163DFFD9BFD}">
   <dimension ref="A1:P101"/>
   <sheetViews>
-    <sheetView topLeftCell="J34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T91" sqref="T91"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="U3" sqref="U3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -27248,19 +27433,19 @@
       <c r="K4" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="L4" s="6">
+      <c r="L4">
         <v>93477395</v>
       </c>
-      <c r="M4" s="6">
+      <c r="M4">
         <v>103379977</v>
       </c>
-      <c r="N4" s="6">
+      <c r="N4">
         <v>104997484</v>
       </c>
-      <c r="O4" s="6">
+      <c r="O4">
         <v>111266706</v>
       </c>
-      <c r="P4" s="6">
+      <c r="P4">
         <v>413121562</v>
       </c>
     </row>
@@ -27295,19 +27480,19 @@
       <c r="K5" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="L5" s="6">
+      <c r="L5">
         <v>32292610</v>
       </c>
-      <c r="M5" s="6">
+      <c r="M5">
         <v>35194304</v>
       </c>
-      <c r="N5" s="6">
+      <c r="N5">
         <v>35282772</v>
       </c>
-      <c r="O5" s="6">
+      <c r="O5">
         <v>38033929</v>
       </c>
-      <c r="P5" s="6">
+      <c r="P5">
         <v>140803615</v>
       </c>
     </row>
@@ -27342,19 +27527,19 @@
       <c r="K6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L6" s="6">
+      <c r="L6">
         <v>54255008</v>
       </c>
-      <c r="M6" s="6">
+      <c r="M6">
         <v>57994006</v>
       </c>
-      <c r="N6" s="6">
+      <c r="N6">
         <v>59000850</v>
       </c>
-      <c r="O6" s="6">
+      <c r="O6">
         <v>60149464</v>
       </c>
-      <c r="P6" s="6">
+      <c r="P6">
         <v>231399328</v>
       </c>
     </row>
@@ -27389,19 +27574,19 @@
       <c r="K7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="L7" s="6">
+      <c r="L7">
         <v>52107668</v>
       </c>
-      <c r="M7" s="6">
+      <c r="M7">
         <v>55871596</v>
       </c>
-      <c r="N7" s="6">
+      <c r="N7">
         <v>57398643</v>
       </c>
-      <c r="O7" s="6">
+      <c r="O7">
         <v>58712738</v>
       </c>
-      <c r="P7" s="6">
+      <c r="P7">
         <v>224090645</v>
       </c>
     </row>
@@ -27436,19 +27621,19 @@
       <c r="K8" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="L8" s="6">
+      <c r="L8">
         <v>81960533</v>
       </c>
-      <c r="M8" s="6">
+      <c r="M8">
         <v>90076319</v>
       </c>
-      <c r="N8" s="6">
+      <c r="N8">
         <v>89284855</v>
       </c>
-      <c r="O8" s="6">
+      <c r="O8">
         <v>91648849</v>
       </c>
-      <c r="P8" s="6">
+      <c r="P8">
         <v>352970556</v>
       </c>
     </row>
@@ -27483,19 +27668,19 @@
       <c r="K9" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L9" s="6">
+      <c r="L9">
         <v>29859594</v>
       </c>
-      <c r="M9" s="6">
+      <c r="M9">
         <v>33234902</v>
       </c>
-      <c r="N9" s="6">
+      <c r="N9">
         <v>34809718</v>
       </c>
-      <c r="O9" s="6">
+      <c r="O9">
         <v>36851896</v>
       </c>
-      <c r="P9" s="6">
+      <c r="P9">
         <v>134756110</v>
       </c>
     </row>
@@ -27530,19 +27715,19 @@
       <c r="K10" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="L10" s="6">
+      <c r="L10">
         <v>60237240</v>
       </c>
-      <c r="M10" s="6">
+      <c r="M10">
         <v>61042525</v>
       </c>
-      <c r="N10" s="6">
+      <c r="N10">
         <v>62850315</v>
       </c>
-      <c r="O10" s="6">
+      <c r="O10">
         <v>64242239</v>
       </c>
-      <c r="P10" s="6">
+      <c r="P10">
         <v>248372319</v>
       </c>
     </row>
@@ -27577,19 +27762,19 @@
       <c r="K11" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L11" s="6">
+      <c r="L11">
         <v>42139004</v>
       </c>
-      <c r="M11" s="6">
+      <c r="M11">
         <v>45064854</v>
       </c>
-      <c r="N11" s="6">
+      <c r="N11">
         <v>46171676</v>
       </c>
-      <c r="O11" s="6">
+      <c r="O11">
         <v>45829736</v>
       </c>
-      <c r="P11" s="6">
+      <c r="P11">
         <v>179205270</v>
       </c>
     </row>
@@ -27624,19 +27809,19 @@
       <c r="K12" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="L12" s="6">
+      <c r="L12">
         <v>46165813</v>
       </c>
-      <c r="M12" s="6">
+      <c r="M12">
         <v>50579231</v>
       </c>
-      <c r="N12" s="6">
+      <c r="N12">
         <v>51726460</v>
       </c>
-      <c r="O12" s="6">
+      <c r="O12">
         <v>53541282</v>
       </c>
-      <c r="P12" s="6">
+      <c r="P12">
         <v>202012786</v>
       </c>
     </row>
@@ -27671,19 +27856,19 @@
       <c r="K13" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="L13" s="6">
+      <c r="L13">
         <v>37019485</v>
       </c>
-      <c r="M13" s="6">
+      <c r="M13">
         <v>38900295</v>
       </c>
-      <c r="N13" s="6">
+      <c r="N13">
         <v>39783107</v>
       </c>
-      <c r="O13" s="6">
+      <c r="O13">
         <v>40702065</v>
       </c>
-      <c r="P13" s="6">
+      <c r="P13">
         <v>156404952</v>
       </c>
     </row>
@@ -27718,19 +27903,19 @@
       <c r="K14" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L14" s="6">
+      <c r="L14">
         <v>57791744</v>
       </c>
-      <c r="M14" s="6">
+      <c r="M14">
         <v>63284045</v>
       </c>
-      <c r="N14" s="6">
+      <c r="N14">
         <v>67437050</v>
       </c>
-      <c r="O14" s="6">
+      <c r="O14">
         <v>70686857</v>
       </c>
-      <c r="P14" s="6">
+      <c r="P14">
         <v>259199696</v>
       </c>
     </row>
@@ -27765,19 +27950,19 @@
       <c r="K15" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="L15" s="6">
+      <c r="L15">
         <v>58188663</v>
       </c>
-      <c r="M15" s="6">
+      <c r="M15">
         <v>62588194</v>
       </c>
-      <c r="N15" s="6">
+      <c r="N15">
         <v>62446828</v>
       </c>
-      <c r="O15" s="6">
+      <c r="O15">
         <v>65399210</v>
       </c>
-      <c r="P15" s="6">
+      <c r="P15">
         <v>248622895</v>
       </c>
     </row>
@@ -27812,19 +27997,19 @@
       <c r="K16" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="L16" s="6">
+      <c r="L16">
         <v>56944960</v>
       </c>
-      <c r="M16" s="6">
+      <c r="M16">
         <v>64510577</v>
       </c>
-      <c r="N16" s="6">
+      <c r="N16">
         <v>68374401</v>
       </c>
-      <c r="O16" s="6">
+      <c r="O16">
         <v>71954538</v>
       </c>
-      <c r="P16" s="6">
+      <c r="P16">
         <v>261784476</v>
       </c>
     </row>
@@ -27859,19 +28044,19 @@
       <c r="K17" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="L17" s="6">
+      <c r="L17">
         <v>60695355</v>
       </c>
-      <c r="M17" s="6">
+      <c r="M17">
         <v>68059904</v>
       </c>
-      <c r="N17" s="6">
+      <c r="N17">
         <v>72292718</v>
       </c>
-      <c r="O17" s="6">
+      <c r="O17">
         <v>75152493</v>
       </c>
-      <c r="P17" s="6">
+      <c r="P17">
         <v>276200470</v>
       </c>
     </row>
@@ -27906,19 +28091,19 @@
       <c r="K18" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="L18" s="6">
+      <c r="L18">
         <v>72872287</v>
       </c>
-      <c r="M18" s="6">
+      <c r="M18">
         <v>78195534</v>
       </c>
-      <c r="N18" s="6">
+      <c r="N18">
         <v>78646999</v>
       </c>
-      <c r="O18" s="6">
+      <c r="O18">
         <v>81739104</v>
       </c>
-      <c r="P18" s="6">
+      <c r="P18">
         <v>311453924</v>
       </c>
     </row>
@@ -27953,19 +28138,19 @@
       <c r="K19" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L19" s="6">
+      <c r="L19">
         <v>31552270</v>
       </c>
-      <c r="M19" s="6">
+      <c r="M19">
         <v>34157923</v>
       </c>
-      <c r="N19" s="6">
+      <c r="N19">
         <v>35237767</v>
       </c>
-      <c r="O19" s="6">
+      <c r="O19">
         <v>37079391</v>
       </c>
-      <c r="P19" s="6">
+      <c r="P19">
         <v>138027351</v>
       </c>
     </row>
@@ -28000,19 +28185,19 @@
       <c r="K20" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L20" s="6">
+      <c r="L20">
         <v>67929727</v>
       </c>
-      <c r="M20" s="6">
+      <c r="M20">
         <v>76331592</v>
       </c>
-      <c r="N20" s="6">
+      <c r="N20">
         <v>79361062</v>
       </c>
-      <c r="O20" s="6">
+      <c r="O20">
         <v>81559692</v>
       </c>
-      <c r="P20" s="6">
+      <c r="P20">
         <v>305182073</v>
       </c>
     </row>
@@ -28047,19 +28232,19 @@
       <c r="K21" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="L21" s="6">
+      <c r="L21">
         <v>60517668</v>
       </c>
-      <c r="M21" s="6">
+      <c r="M21">
         <v>67415209</v>
       </c>
-      <c r="N21" s="6">
+      <c r="N21">
         <v>69881907</v>
       </c>
-      <c r="O21" s="6">
+      <c r="O21">
         <v>71926631</v>
       </c>
-      <c r="P21" s="6">
+      <c r="P21">
         <v>269741415</v>
       </c>
     </row>
@@ -28094,19 +28279,19 @@
       <c r="K22" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L22" s="6">
+      <c r="L22">
         <v>46183700</v>
       </c>
-      <c r="M22" s="6">
+      <c r="M22">
         <v>49938837</v>
       </c>
-      <c r="N22" s="6">
+      <c r="N22">
         <v>51701808</v>
       </c>
-      <c r="O22" s="6">
+      <c r="O22">
         <v>52935254</v>
       </c>
-      <c r="P22" s="6">
+      <c r="P22">
         <v>200759599</v>
       </c>
     </row>
@@ -28141,19 +28326,19 @@
       <c r="K23" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="L23" s="6">
+      <c r="L23">
         <v>61964048</v>
       </c>
-      <c r="M23" s="6">
+      <c r="M23">
         <v>69289958</v>
       </c>
-      <c r="N23" s="6">
+      <c r="N23">
         <v>72387873</v>
       </c>
-      <c r="O23" s="6">
+      <c r="O23">
         <v>74379751</v>
       </c>
-      <c r="P23" s="6">
+      <c r="P23">
         <v>278021630</v>
       </c>
     </row>
@@ -28188,19 +28373,19 @@
       <c r="K24" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L24" s="6">
+      <c r="L24">
         <v>43905878</v>
       </c>
-      <c r="M24" s="6">
+      <c r="M24">
         <v>50537978</v>
       </c>
-      <c r="N24" s="6">
+      <c r="N24">
         <v>54008803</v>
       </c>
-      <c r="O24" s="6">
+      <c r="O24">
         <v>56796253</v>
       </c>
-      <c r="P24" s="6">
+      <c r="P24">
         <v>205248912</v>
       </c>
     </row>
@@ -28235,19 +28420,19 @@
       <c r="K25" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="L25" s="6">
+      <c r="L25">
         <v>57517380</v>
       </c>
-      <c r="M25" s="6">
+      <c r="M25">
         <v>61790167</v>
       </c>
-      <c r="N25" s="6">
+      <c r="N25">
         <v>63338467</v>
       </c>
-      <c r="O25" s="6">
+      <c r="O25">
         <v>65746264</v>
       </c>
-      <c r="P25" s="6">
+      <c r="P25">
         <v>248392278</v>
       </c>
     </row>
@@ -28282,19 +28467,19 @@
       <c r="K26" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L26" s="6">
+      <c r="L26">
         <v>57821751</v>
       </c>
-      <c r="M26" s="6">
+      <c r="M26">
         <v>67454849</v>
       </c>
-      <c r="N26" s="6">
+      <c r="N26">
         <v>70681425</v>
       </c>
-      <c r="O26" s="6">
+      <c r="O26">
         <v>74208386</v>
       </c>
-      <c r="P26" s="6">
+      <c r="P26">
         <v>270166411</v>
       </c>
     </row>
@@ -28329,19 +28514,19 @@
       <c r="K27" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="L27" s="6">
+      <c r="L27">
         <v>39190006</v>
       </c>
-      <c r="M27" s="6">
+      <c r="M27">
         <v>45724150</v>
       </c>
-      <c r="N27" s="6">
+      <c r="N27">
         <v>48721660</v>
       </c>
-      <c r="O27" s="6">
+      <c r="O27">
         <v>52435264</v>
       </c>
-      <c r="P27" s="6">
+      <c r="P27">
         <v>186071080</v>
       </c>
     </row>
@@ -28376,19 +28561,19 @@
       <c r="K28" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="L28" s="6">
+      <c r="L28">
         <v>41568031</v>
       </c>
-      <c r="M28" s="6">
+      <c r="M28">
         <v>46033124</v>
       </c>
-      <c r="N28" s="6">
+      <c r="N28">
         <v>48356010</v>
       </c>
-      <c r="O28" s="6">
+      <c r="O28">
         <v>49857596</v>
       </c>
-      <c r="P28" s="6">
+      <c r="P28">
         <v>185814761</v>
       </c>
     </row>
@@ -28423,19 +28608,19 @@
       <c r="K29" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="L29" s="6">
+      <c r="L29">
         <v>1344157818</v>
       </c>
-      <c r="M29" s="6">
+      <c r="M29">
         <v>1476650050</v>
       </c>
-      <c r="N29" s="6">
+      <c r="N29">
         <v>1524180658</v>
       </c>
-      <c r="O29" s="6">
+      <c r="O29">
         <v>1582835588</v>
       </c>
-      <c r="P29" s="6">
+      <c r="P29">
         <v>5927824114</v>
       </c>
     </row>
@@ -28697,19 +28882,19 @@
       <c r="K37" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="L37" s="6">
+      <c r="L37">
         <v>139523472</v>
       </c>
-      <c r="M37" s="6">
+      <c r="M37">
         <v>161272441</v>
       </c>
-      <c r="N37" s="6">
+      <c r="N37">
         <v>175606259</v>
       </c>
-      <c r="O37" s="6">
+      <c r="O37">
         <v>179953430</v>
       </c>
-      <c r="P37" s="6">
+      <c r="P37">
         <v>656355602</v>
       </c>
     </row>
@@ -28744,19 +28929,19 @@
       <c r="K38" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="L38" s="6">
+      <c r="L38">
         <v>45671791</v>
       </c>
-      <c r="M38" s="6">
+      <c r="M38">
         <v>49416957</v>
       </c>
-      <c r="N38" s="6">
+      <c r="N38">
         <v>51997375</v>
       </c>
-      <c r="O38" s="6">
+      <c r="O38">
         <v>55794880</v>
       </c>
-      <c r="P38" s="6">
+      <c r="P38">
         <v>202881003</v>
       </c>
     </row>
@@ -28791,19 +28976,19 @@
       <c r="K39" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L39" s="6">
+      <c r="L39">
         <v>28068271</v>
       </c>
-      <c r="M39" s="6">
+      <c r="M39">
         <v>30445153</v>
       </c>
-      <c r="N39" s="6">
+      <c r="N39">
         <v>32266378</v>
       </c>
-      <c r="O39" s="6">
+      <c r="O39">
         <v>32634332</v>
       </c>
-      <c r="P39" s="6">
+      <c r="P39">
         <v>123414134</v>
       </c>
     </row>
@@ -28838,19 +29023,19 @@
       <c r="K40" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="L40" s="6">
+      <c r="L40">
         <v>62794479</v>
       </c>
-      <c r="M40" s="6">
+      <c r="M40">
         <v>69470943</v>
       </c>
-      <c r="N40" s="6">
+      <c r="N40">
         <v>75470439</v>
       </c>
-      <c r="O40" s="6">
+      <c r="O40">
         <v>78419782</v>
       </c>
-      <c r="P40" s="6">
+      <c r="P40">
         <v>286155643</v>
       </c>
     </row>
@@ -28885,19 +29070,19 @@
       <c r="K41" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="L41" s="6">
+      <c r="L41">
         <v>75428105</v>
       </c>
-      <c r="M41" s="6">
+      <c r="M41">
         <v>84916033</v>
       </c>
-      <c r="N41" s="6">
+      <c r="N41">
         <v>90767121</v>
       </c>
-      <c r="O41" s="6">
+      <c r="O41">
         <v>92102308</v>
       </c>
-      <c r="P41" s="6">
+      <c r="P41">
         <v>343213567</v>
       </c>
     </row>
@@ -28932,19 +29117,19 @@
       <c r="K42" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L42" s="6">
+      <c r="L42">
         <v>56633974</v>
       </c>
-      <c r="M42" s="6">
+      <c r="M42">
         <v>64860255</v>
       </c>
-      <c r="N42" s="6">
+      <c r="N42">
         <v>69506034</v>
       </c>
-      <c r="O42" s="6">
+      <c r="O42">
         <v>70329994</v>
       </c>
-      <c r="P42" s="6">
+      <c r="P42">
         <v>261330257</v>
       </c>
     </row>
@@ -28979,19 +29164,19 @@
       <c r="K43" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="L43" s="6">
+      <c r="L43">
         <v>56036771</v>
       </c>
-      <c r="M43" s="6">
+      <c r="M43">
         <v>59580422</v>
       </c>
-      <c r="N43" s="6">
+      <c r="N43">
         <v>63065182</v>
       </c>
-      <c r="O43" s="6">
+      <c r="O43">
         <v>63648432</v>
       </c>
-      <c r="P43" s="6">
+      <c r="P43">
         <v>242330807</v>
       </c>
     </row>
@@ -29026,19 +29211,19 @@
       <c r="K44" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L44" s="6">
+      <c r="L44">
         <v>19830665</v>
       </c>
-      <c r="M44" s="6">
+      <c r="M44">
         <v>20465940</v>
       </c>
-      <c r="N44" s="6">
+      <c r="N44">
         <v>21372019</v>
       </c>
-      <c r="O44" s="6">
+      <c r="O44">
         <v>21506116</v>
       </c>
-      <c r="P44" s="6">
+      <c r="P44">
         <v>83174740</v>
       </c>
     </row>
@@ -29073,19 +29258,19 @@
       <c r="K45" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="L45" s="6">
+      <c r="L45">
         <v>52909026</v>
       </c>
-      <c r="M45" s="6">
+      <c r="M45">
         <v>57264326</v>
       </c>
-      <c r="N45" s="6">
+      <c r="N45">
         <v>61347921</v>
       </c>
-      <c r="O45" s="6">
+      <c r="O45">
         <v>65760380</v>
       </c>
-      <c r="P45" s="6">
+      <c r="P45">
         <v>237281653</v>
       </c>
     </row>
@@ -29120,19 +29305,19 @@
       <c r="K46" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="L46" s="6">
+      <c r="L46">
         <v>25198610</v>
       </c>
-      <c r="M46" s="6">
+      <c r="M46">
         <v>26987249</v>
       </c>
-      <c r="N46" s="6">
+      <c r="N46">
         <v>28321911</v>
       </c>
-      <c r="O46" s="6">
+      <c r="O46">
         <v>29260920</v>
       </c>
-      <c r="P46" s="6">
+      <c r="P46">
         <v>109768690</v>
       </c>
     </row>
@@ -29167,19 +29352,19 @@
       <c r="K47" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L47" s="6">
+      <c r="L47">
         <v>31218408</v>
       </c>
-      <c r="M47" s="6">
+      <c r="M47">
         <v>34854710</v>
       </c>
-      <c r="N47" s="6">
+      <c r="N47">
         <v>37821239</v>
       </c>
-      <c r="O47" s="6">
+      <c r="O47">
         <v>39182683</v>
       </c>
-      <c r="P47" s="6">
+      <c r="P47">
         <v>143077040</v>
       </c>
     </row>
@@ -29214,19 +29399,19 @@
       <c r="K48" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="L48" s="6">
+      <c r="L48">
         <v>45706535</v>
       </c>
-      <c r="M48" s="6">
+      <c r="M48">
         <v>51528199</v>
       </c>
-      <c r="N48" s="6">
+      <c r="N48">
         <v>55771179</v>
       </c>
-      <c r="O48" s="6">
+      <c r="O48">
         <v>57208566</v>
       </c>
-      <c r="P48" s="6">
+      <c r="P48">
         <v>210214479</v>
       </c>
     </row>
@@ -29261,19 +29446,19 @@
       <c r="K49" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="L49" s="6">
+      <c r="L49">
         <v>78992624</v>
       </c>
-      <c r="M49" s="6">
+      <c r="M49">
         <v>91948749</v>
       </c>
-      <c r="N49" s="6">
+      <c r="N49">
         <v>103281308</v>
       </c>
-      <c r="O49" s="6">
+      <c r="O49">
         <v>107502551</v>
       </c>
-      <c r="P49" s="6">
+      <c r="P49">
         <v>381725232</v>
       </c>
     </row>
@@ -29308,19 +29493,19 @@
       <c r="K50" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="L50" s="6">
+      <c r="L50">
         <v>28742860</v>
       </c>
-      <c r="M50" s="6">
+      <c r="M50">
         <v>32850877</v>
       </c>
-      <c r="N50" s="6">
+      <c r="N50">
         <v>36582300</v>
       </c>
-      <c r="O50" s="6">
+      <c r="O50">
         <v>37369540</v>
       </c>
-      <c r="P50" s="6">
+      <c r="P50">
         <v>135545577</v>
       </c>
     </row>
@@ -29355,19 +29540,19 @@
       <c r="K51" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="L51" s="6">
+      <c r="L51">
         <v>104225039</v>
       </c>
-      <c r="M51" s="6">
+      <c r="M51">
         <v>117324071</v>
       </c>
-      <c r="N51" s="6">
+      <c r="N51">
         <v>127350104</v>
       </c>
-      <c r="O51" s="6">
+      <c r="O51">
         <v>130172545</v>
       </c>
-      <c r="P51" s="6">
+      <c r="P51">
         <v>479071759</v>
       </c>
     </row>
@@ -29402,19 +29587,19 @@
       <c r="K52" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L52" s="6">
+      <c r="L52">
         <v>56470250</v>
       </c>
-      <c r="M52" s="6">
+      <c r="M52">
         <v>64269063</v>
       </c>
-      <c r="N52" s="6">
+      <c r="N52">
         <v>70179191</v>
       </c>
-      <c r="O52" s="6">
+      <c r="O52">
         <v>73862010</v>
       </c>
-      <c r="P52" s="6">
+      <c r="P52">
         <v>264780514</v>
       </c>
     </row>
@@ -29449,19 +29634,19 @@
       <c r="K53" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L53" s="6">
+      <c r="L53">
         <v>37822410</v>
       </c>
-      <c r="M53" s="6">
+      <c r="M53">
         <v>43239120</v>
       </c>
-      <c r="N53" s="6">
+      <c r="N53">
         <v>46809536</v>
       </c>
-      <c r="O53" s="6">
+      <c r="O53">
         <v>47802034</v>
       </c>
-      <c r="P53" s="6">
+      <c r="P53">
         <v>175673100</v>
       </c>
     </row>
@@ -29496,19 +29681,19 @@
       <c r="K54" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="L54" s="6">
+      <c r="L54">
         <v>89719740</v>
       </c>
-      <c r="M54" s="6">
+      <c r="M54">
         <v>104523594</v>
       </c>
-      <c r="N54" s="6">
+      <c r="N54">
         <v>115250643</v>
       </c>
-      <c r="O54" s="6">
+      <c r="O54">
         <v>120662352</v>
       </c>
-      <c r="P54" s="6">
+      <c r="P54">
         <v>430156329</v>
       </c>
     </row>
@@ -29543,19 +29728,19 @@
       <c r="K55" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L55" s="6">
+      <c r="L55">
         <v>30359568</v>
       </c>
-      <c r="M55" s="6">
+      <c r="M55">
         <v>33236941</v>
       </c>
-      <c r="N55" s="6">
+      <c r="N55">
         <v>35246960</v>
       </c>
-      <c r="O55" s="6">
+      <c r="O55">
         <v>35719191</v>
       </c>
-      <c r="P55" s="6">
+      <c r="P55">
         <v>134562660</v>
       </c>
     </row>
@@ -29590,19 +29775,19 @@
       <c r="K56" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="L56" s="6">
+      <c r="L56">
         <v>81402306</v>
       </c>
-      <c r="M56" s="6">
+      <c r="M56">
         <v>91890433</v>
       </c>
-      <c r="N56" s="6">
+      <c r="N56">
         <v>100244057</v>
       </c>
-      <c r="O56" s="6">
+      <c r="O56">
         <v>103831744</v>
       </c>
-      <c r="P56" s="6">
+      <c r="P56">
         <v>377368540</v>
       </c>
     </row>
@@ -29637,19 +29822,19 @@
       <c r="K57" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L57" s="6">
+      <c r="L57">
         <v>32335411</v>
       </c>
-      <c r="M57" s="6">
+      <c r="M57">
         <v>39369572</v>
       </c>
-      <c r="N57" s="6">
+      <c r="N57">
         <v>44222766</v>
       </c>
-      <c r="O57" s="6">
+      <c r="O57">
         <v>45863450</v>
       </c>
-      <c r="P57" s="6">
+      <c r="P57">
         <v>161791199</v>
       </c>
     </row>
@@ -29684,19 +29869,19 @@
       <c r="K58" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="L58" s="6">
+      <c r="L58">
         <v>45319869</v>
       </c>
-      <c r="M58" s="6">
+      <c r="M58">
         <v>48938669</v>
       </c>
-      <c r="N58" s="6">
+      <c r="N58">
         <v>51822570</v>
       </c>
-      <c r="O58" s="6">
+      <c r="O58">
         <v>52739892</v>
       </c>
-      <c r="P58" s="6">
+      <c r="P58">
         <v>198821000</v>
       </c>
     </row>
@@ -29731,19 +29916,19 @@
       <c r="K59" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L59" s="6">
+      <c r="L59">
         <v>75771163</v>
       </c>
-      <c r="M59" s="6">
+      <c r="M59">
         <v>89319867</v>
       </c>
-      <c r="N59" s="6">
+      <c r="N59">
         <v>100748476</v>
       </c>
-      <c r="O59" s="6">
+      <c r="O59">
         <v>103323781</v>
       </c>
-      <c r="P59" s="6">
+      <c r="P59">
         <v>369163287</v>
       </c>
     </row>
@@ -29778,19 +29963,19 @@
       <c r="K60" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="L60" s="6">
+      <c r="L60">
         <v>100938579</v>
       </c>
-      <c r="M60" s="6">
+      <c r="M60">
         <v>120765784</v>
       </c>
-      <c r="N60" s="6">
+      <c r="N60">
         <v>144615589</v>
       </c>
-      <c r="O60" s="6">
+      <c r="O60">
         <v>152294765</v>
       </c>
-      <c r="P60" s="6">
+      <c r="P60">
         <v>518614717</v>
       </c>
     </row>
@@ -29825,19 +30010,19 @@
       <c r="K61" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="L61" s="6">
+      <c r="L61">
         <v>29571182</v>
       </c>
-      <c r="M61" s="6">
+      <c r="M61">
         <v>31943438</v>
       </c>
-      <c r="N61" s="6">
+      <c r="N61">
         <v>33835684</v>
       </c>
-      <c r="O61" s="6">
+      <c r="O61">
         <v>34271820</v>
       </c>
-      <c r="P61" s="6">
+      <c r="P61">
         <v>129622124</v>
       </c>
     </row>
@@ -29872,19 +30057,19 @@
       <c r="K62" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="L62" s="6">
+      <c r="L62">
         <v>1430691108</v>
       </c>
-      <c r="M62" s="6">
+      <c r="M62">
         <v>1620682806</v>
       </c>
-      <c r="N62" s="6">
+      <c r="N62">
         <v>1773502241</v>
       </c>
-      <c r="O62" s="6">
+      <c r="O62">
         <v>1831217498</v>
       </c>
-      <c r="P62" s="6">
+      <c r="P62">
         <v>6656093653</v>
       </c>
     </row>
@@ -30117,19 +30302,19 @@
       <c r="K69" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="L69" s="6">
+      <c r="L69">
         <v>30147451</v>
       </c>
-      <c r="M69" s="6">
+      <c r="M69">
         <v>29313393</v>
       </c>
-      <c r="N69" s="6">
+      <c r="N69">
         <v>25466495</v>
       </c>
-      <c r="O69" s="6">
+      <c r="O69">
         <v>31707708</v>
       </c>
-      <c r="P69" s="6">
+      <c r="P69">
         <v>116635047</v>
       </c>
     </row>
@@ -30164,19 +30349,19 @@
       <c r="K70" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="L70" s="6">
+      <c r="L70">
         <v>9550836</v>
       </c>
-      <c r="M70" s="6">
+      <c r="M70">
         <v>9313432</v>
       </c>
-      <c r="N70" s="6">
+      <c r="N70">
         <v>6731513</v>
       </c>
-      <c r="O70" s="6">
+      <c r="O70">
         <v>8331233</v>
       </c>
-      <c r="P70" s="6">
+      <c r="P70">
         <v>33927014</v>
       </c>
     </row>
@@ -30211,19 +30396,19 @@
       <c r="K71" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="L71" s="6">
+      <c r="L71">
         <v>5932508</v>
       </c>
-      <c r="M71" s="6">
+      <c r="M71">
         <v>5844333</v>
       </c>
-      <c r="N71" s="6">
+      <c r="N71">
         <v>4154257</v>
       </c>
-      <c r="O71" s="6">
+      <c r="O71">
         <v>4815306</v>
       </c>
-      <c r="P71" s="6">
+      <c r="P71">
         <v>20746404</v>
       </c>
     </row>
@@ -30258,19 +30443,19 @@
       <c r="K72" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="L72" s="6">
+      <c r="L72">
         <v>10994705</v>
       </c>
-      <c r="M72" s="6">
+      <c r="M72">
         <v>11273287</v>
       </c>
-      <c r="N72" s="6">
+      <c r="N72">
         <v>8856021</v>
       </c>
-      <c r="O72" s="6">
+      <c r="O72">
         <v>10865833</v>
       </c>
-      <c r="P72" s="6">
+      <c r="P72">
         <v>41989846</v>
       </c>
     </row>
@@ -30305,19 +30490,19 @@
       <c r="K73" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="L73" s="6">
+      <c r="L73">
         <v>8799726</v>
       </c>
-      <c r="M73" s="6">
+      <c r="M73">
         <v>8327226</v>
       </c>
-      <c r="N73" s="6">
+      <c r="N73">
         <v>6588738</v>
       </c>
-      <c r="O73" s="6">
+      <c r="O73">
         <v>7776886</v>
       </c>
-      <c r="P73" s="6">
+      <c r="P73">
         <v>31492576</v>
       </c>
     </row>
@@ -30352,19 +30537,19 @@
       <c r="K74" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="L74" s="6">
+      <c r="L74">
         <v>9237922</v>
       </c>
-      <c r="M74" s="6">
+      <c r="M74">
         <v>9150945</v>
       </c>
-      <c r="N74" s="6">
+      <c r="N74">
         <v>7212412</v>
       </c>
-      <c r="O74" s="6">
+      <c r="O74">
         <v>8504662</v>
       </c>
-      <c r="P74" s="6">
+      <c r="P74">
         <v>34105941</v>
       </c>
     </row>
@@ -30399,19 +30584,19 @@
       <c r="K75" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="L75" s="6">
+      <c r="L75">
         <v>7113869</v>
       </c>
-      <c r="M75" s="6">
+      <c r="M75">
         <v>6881163</v>
       </c>
-      <c r="N75" s="6">
+      <c r="N75">
         <v>5506997</v>
       </c>
-      <c r="O75" s="6">
+      <c r="O75">
         <v>6560520</v>
       </c>
-      <c r="P75" s="6">
+      <c r="P75">
         <v>26062549</v>
       </c>
     </row>
@@ -30446,19 +30631,19 @@
       <c r="K76" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="L76" s="6">
+      <c r="L76">
         <v>4782615</v>
       </c>
-      <c r="M76" s="6">
+      <c r="M76">
         <v>4526171</v>
       </c>
-      <c r="N76" s="6">
+      <c r="N76">
         <v>3562081</v>
       </c>
-      <c r="O76" s="6">
+      <c r="O76">
         <v>4182936</v>
       </c>
-      <c r="P76" s="6">
+      <c r="P76">
         <v>17053803</v>
       </c>
     </row>
@@ -30493,19 +30678,19 @@
       <c r="K77" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="L77" s="6">
+      <c r="L77">
         <v>9665232</v>
       </c>
-      <c r="M77" s="6">
+      <c r="M77">
         <v>9643000</v>
       </c>
-      <c r="N77" s="6">
+      <c r="N77">
         <v>6749475</v>
       </c>
-      <c r="O77" s="6">
+      <c r="O77">
         <v>7875599</v>
       </c>
-      <c r="P77" s="6">
+      <c r="P77">
         <v>33933306</v>
       </c>
     </row>
@@ -30540,19 +30725,19 @@
       <c r="K78" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="L78" s="6">
+      <c r="L78">
         <v>5521781</v>
       </c>
-      <c r="M78" s="6">
+      <c r="M78">
         <v>5354651</v>
       </c>
-      <c r="N78" s="6">
+      <c r="N78">
         <v>3556554</v>
       </c>
-      <c r="O78" s="6">
+      <c r="O78">
         <v>4317244</v>
       </c>
-      <c r="P78" s="6">
+      <c r="P78">
         <v>18750230</v>
       </c>
     </row>
@@ -30587,19 +30772,19 @@
       <c r="K79" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L79" s="6">
+      <c r="L79">
         <v>8932560</v>
       </c>
-      <c r="M79" s="6">
+      <c r="M79">
         <v>8472038</v>
       </c>
-      <c r="N79" s="6">
+      <c r="N79">
         <v>6352790</v>
       </c>
-      <c r="O79" s="6">
+      <c r="O79">
         <v>7418058</v>
       </c>
-      <c r="P79" s="6">
+      <c r="P79">
         <v>31175446</v>
       </c>
     </row>
@@ -30634,19 +30819,19 @@
       <c r="K80" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="L80" s="6">
+      <c r="L80">
         <v>5482208</v>
       </c>
-      <c r="M80" s="6">
+      <c r="M80">
         <v>5071279</v>
       </c>
-      <c r="N80" s="6">
+      <c r="N80">
         <v>4043040</v>
       </c>
-      <c r="O80" s="6">
+      <c r="O80">
         <v>4909739</v>
       </c>
-      <c r="P80" s="6">
+      <c r="P80">
         <v>19506266</v>
       </c>
     </row>
@@ -30681,19 +30866,19 @@
       <c r="K81" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="L81" s="6">
+      <c r="L81">
         <v>12193528</v>
       </c>
-      <c r="M81" s="6">
+      <c r="M81">
         <v>12864715</v>
       </c>
-      <c r="N81" s="6">
+      <c r="N81">
         <v>11326566</v>
       </c>
-      <c r="O81" s="6">
+      <c r="O81">
         <v>14349022</v>
       </c>
-      <c r="P81" s="6">
+      <c r="P81">
         <v>50733831</v>
       </c>
     </row>
@@ -30728,19 +30913,19 @@
       <c r="K82" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="L82" s="6">
+      <c r="L82">
         <v>6519909</v>
       </c>
-      <c r="M82" s="6">
+      <c r="M82">
         <v>6253061</v>
       </c>
-      <c r="N82" s="6">
+      <c r="N82">
         <v>4980135</v>
       </c>
-      <c r="O82" s="6">
+      <c r="O82">
         <v>6050529</v>
       </c>
-      <c r="P82" s="6">
+      <c r="P82">
         <v>23803634</v>
       </c>
     </row>
@@ -30775,19 +30960,19 @@
       <c r="K83" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="L83" s="6">
+      <c r="L83">
         <v>14220978</v>
       </c>
-      <c r="M83" s="6">
+      <c r="M83">
         <v>13494848</v>
       </c>
-      <c r="N83" s="6">
+      <c r="N83">
         <v>11497071</v>
       </c>
-      <c r="O83" s="6">
+      <c r="O83">
         <v>14043834</v>
       </c>
-      <c r="P83" s="6">
+      <c r="P83">
         <v>53256731</v>
       </c>
     </row>
@@ -30822,19 +31007,19 @@
       <c r="K84" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L84" s="6">
+      <c r="L84">
         <v>8064905</v>
       </c>
-      <c r="M84" s="6">
+      <c r="M84">
         <v>7738640</v>
       </c>
-      <c r="N84" s="6">
+      <c r="N84">
         <v>6300965</v>
       </c>
-      <c r="O84" s="6">
+      <c r="O84">
         <v>7780299</v>
       </c>
-      <c r="P84" s="6">
+      <c r="P84">
         <v>29884809</v>
       </c>
     </row>
@@ -30869,19 +31054,19 @@
       <c r="K85" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="L85" s="6">
+      <c r="L85">
         <v>7039123</v>
       </c>
-      <c r="M85" s="6">
+      <c r="M85">
         <v>6598855</v>
       </c>
-      <c r="N85" s="6">
+      <c r="N85">
         <v>4934692</v>
       </c>
-      <c r="O85" s="6">
+      <c r="O85">
         <v>5892542</v>
       </c>
-      <c r="P85" s="6">
+      <c r="P85">
         <v>24465212</v>
       </c>
     </row>
@@ -30916,19 +31101,19 @@
       <c r="K86" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="L86" s="6">
+      <c r="L86">
         <v>16186249</v>
       </c>
-      <c r="M86" s="6">
+      <c r="M86">
         <v>16016973</v>
       </c>
-      <c r="N86" s="6">
+      <c r="N86">
         <v>12546837</v>
       </c>
-      <c r="O86" s="6">
+      <c r="O86">
         <v>15463973</v>
       </c>
-      <c r="P86" s="6">
+      <c r="P86">
         <v>60214032</v>
       </c>
     </row>
@@ -30963,19 +31148,19 @@
       <c r="K87" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L87" s="6">
+      <c r="L87">
         <v>6635854</v>
       </c>
-      <c r="M87" s="6">
+      <c r="M87">
         <v>6282670</v>
       </c>
-      <c r="N87" s="6">
+      <c r="N87">
         <v>4721499</v>
       </c>
-      <c r="O87" s="6">
+      <c r="O87">
         <v>5705269</v>
       </c>
-      <c r="P87" s="6">
+      <c r="P87">
         <v>23345292</v>
       </c>
     </row>
@@ -31010,19 +31195,19 @@
       <c r="K88" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="L88" s="6">
+      <c r="L88">
         <v>14133151</v>
       </c>
-      <c r="M88" s="6">
+      <c r="M88">
         <v>13650593</v>
       </c>
-      <c r="N88" s="6">
+      <c r="N88">
         <v>11399168</v>
       </c>
-      <c r="O88" s="6">
+      <c r="O88">
         <v>14080187</v>
       </c>
-      <c r="P88" s="6">
+      <c r="P88">
         <v>53263099</v>
       </c>
     </row>
@@ -31057,19 +31242,19 @@
       <c r="K89" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L89" s="6">
+      <c r="L89">
         <v>10790696</v>
       </c>
-      <c r="M89" s="6">
+      <c r="M89">
         <v>10968319</v>
       </c>
-      <c r="N89" s="6">
+      <c r="N89">
         <v>9529362</v>
       </c>
-      <c r="O89" s="6">
+      <c r="O89">
         <v>12496071</v>
       </c>
-      <c r="P89" s="6">
+      <c r="P89">
         <v>43784448</v>
       </c>
     </row>
@@ -31104,19 +31289,19 @@
       <c r="K90" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="L90" s="6">
+      <c r="L90">
         <v>7579254</v>
       </c>
-      <c r="M90" s="6">
+      <c r="M90">
         <v>7152353</v>
       </c>
-      <c r="N90" s="6">
+      <c r="N90">
         <v>5213363</v>
       </c>
-      <c r="O90" s="6">
+      <c r="O90">
         <v>6459381</v>
       </c>
-      <c r="P90" s="6">
+      <c r="P90">
         <v>26404351</v>
       </c>
     </row>
@@ -31151,19 +31336,19 @@
       <c r="K91" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="L91" s="6">
+      <c r="L91">
         <v>8167055</v>
       </c>
-      <c r="M91" s="6">
+      <c r="M91">
         <v>8160903</v>
       </c>
-      <c r="N91" s="6">
+      <c r="N91">
         <v>7137801</v>
       </c>
-      <c r="O91" s="6">
+      <c r="O91">
         <v>9021065</v>
       </c>
-      <c r="P91" s="6">
+      <c r="P91">
         <v>32486824</v>
       </c>
     </row>
@@ -31198,19 +31383,19 @@
       <c r="K92" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="L92" s="6">
+      <c r="L92">
         <v>9727454</v>
       </c>
-      <c r="M92" s="6">
+      <c r="M92">
         <v>9664890</v>
       </c>
-      <c r="N92" s="6">
+      <c r="N92">
         <v>8987078</v>
       </c>
-      <c r="O92" s="6">
+      <c r="O92">
         <v>11892437</v>
       </c>
-      <c r="P92" s="6">
+      <c r="P92">
         <v>40271859</v>
       </c>
     </row>
@@ -31245,19 +31430,19 @@
       <c r="K93" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="L93" s="6">
+      <c r="L93">
         <v>8154731</v>
       </c>
-      <c r="M93" s="6">
+      <c r="M93">
         <v>7943028</v>
       </c>
-      <c r="N93" s="6">
+      <c r="N93">
         <v>5868931</v>
       </c>
-      <c r="O93" s="6">
+      <c r="O93">
         <v>6564251</v>
       </c>
-      <c r="P93" s="6">
+      <c r="P93">
         <v>28530941</v>
       </c>
     </row>
@@ -31292,19 +31477,19 @@
       <c r="K94" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="L94" s="6">
+      <c r="L94">
         <v>245574300</v>
       </c>
-      <c r="M94" s="6">
+      <c r="M94">
         <v>239960766</v>
       </c>
-      <c r="N94" s="6">
+      <c r="N94">
         <v>193223841</v>
       </c>
-      <c r="O94" s="6">
+      <c r="O94">
         <v>237064584</v>
       </c>
-      <c r="P94" s="6">
+      <c r="P94">
         <v>915823491</v>
       </c>
     </row>
@@ -31523,7 +31708,7 @@
   <dimension ref="A1:N101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -31643,13 +31828,13 @@
       <c r="K3" s="4">
         <v>2021</v>
       </c>
-      <c r="L3" s="7">
+      <c r="L3" s="6">
         <v>9509458</v>
       </c>
-      <c r="M3" s="6">
+      <c r="M3">
         <v>3158710</v>
       </c>
-      <c r="N3" s="8">
+      <c r="N3" s="7">
         <f>CORREL(L3:L6,M3:M6)</f>
         <v>-0.90594306915542144</v>
       </c>
@@ -31685,10 +31870,10 @@
       <c r="K4" s="4">
         <v>2022</v>
       </c>
-      <c r="L4" s="7">
+      <c r="L4" s="6">
         <v>9428372</v>
       </c>
-      <c r="M4" s="6">
+      <c r="M4">
         <v>3180299</v>
       </c>
     </row>
@@ -31723,10 +31908,10 @@
       <c r="K5" s="4">
         <v>2023</v>
       </c>
-      <c r="L5" s="7">
+      <c r="L5" s="6">
         <v>9386034</v>
       </c>
-      <c r="M5" s="6">
+      <c r="M5">
         <v>3191538</v>
       </c>
     </row>
@@ -31761,10 +31946,10 @@
       <c r="K6" s="4">
         <v>2024</v>
       </c>
-      <c r="L6" s="7">
+      <c r="L6" s="6">
         <v>9331828</v>
       </c>
-      <c r="M6" s="6">
+      <c r="M6">
         <v>3187776</v>
       </c>
     </row>
@@ -31799,10 +31984,10 @@
       <c r="K7" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="L7" s="7">
+      <c r="L7" s="6">
         <v>37655692</v>
       </c>
-      <c r="M7" s="6">
+      <c r="M7">
         <v>12718323</v>
       </c>
     </row>
